--- a/Quizz Judo 2.xlsx
+++ b/Quizz Judo 2.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cours_INGESUP\labo_windows\AppJudo\ProjetJudoWP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="180" windowWidth="18795" windowHeight="8385"/>
   </bookViews>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="258">
   <si>
     <t>Tai-Otoshi</t>
   </si>
@@ -786,12 +791,39 @@
   <si>
     <t>bleue</t>
   </si>
+  <si>
+    <t>Marron</t>
+  </si>
+  <si>
+    <t>Bleue</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Pas trouvé</t>
+  </si>
+  <si>
+    <t>Jaune</t>
+  </si>
+  <si>
+    <t>Blanche</t>
+  </si>
+  <si>
+    <t>Verte</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>http://moteur-auracom.com/cgi-bin/aurweb.exe/judo/rech?_tech=Daki-age</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -891,6 +923,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1126,10 +1166,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1327,8 +1368,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1387,7 +1430,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1419,9 +1462,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1453,6 +1497,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1628,14 +1673,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="H137" sqref="H137"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" customWidth="1"/>
@@ -1644,13 +1689,16 @@
     <col min="6" max="6" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="24" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1">
+      <c r="D1" s="91" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>67</v>
       </c>
@@ -1658,13 +1706,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="23"/>
       <c r="C3" s="24"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>184</v>
       </c>
@@ -1679,7 +1727,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="40"/>
       <c r="C5" s="41" t="s">
         <v>100</v>
@@ -1687,7 +1735,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>1</v>
       </c>
@@ -1706,7 +1754,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>2</v>
       </c>
@@ -1725,7 +1773,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>3</v>
       </c>
@@ -1744,7 +1792,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="6" customFormat="1">
+    <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>4</v>
       </c>
@@ -1763,7 +1811,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="6" customFormat="1">
+    <row r="10" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>5</v>
       </c>
@@ -1782,7 +1830,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="6" customFormat="1">
+    <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>6</v>
       </c>
@@ -1801,7 +1849,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="6" customFormat="1">
+    <row r="12" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>7</v>
       </c>
@@ -1820,7 +1868,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="6" customFormat="1">
+    <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>8</v>
       </c>
@@ -1839,7 +1887,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="6" customFormat="1">
+    <row r="14" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>9</v>
       </c>
@@ -1858,7 +1906,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="6" customFormat="1">
+    <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <v>10</v>
       </c>
@@ -1877,7 +1925,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="6" customFormat="1">
+    <row r="16" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <v>11</v>
       </c>
@@ -1896,7 +1944,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <v>12</v>
       </c>
@@ -1915,7 +1963,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <v>13</v>
       </c>
@@ -1934,7 +1982,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <v>14</v>
       </c>
@@ -1953,7 +2001,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
         <v>15</v>
       </c>
@@ -1972,7 +2020,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="20">
         <v>16</v>
       </c>
@@ -1991,7 +2039,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <v>17</v>
       </c>
@@ -2010,7 +2058,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="6" customFormat="1">
+    <row r="23" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
         <v>18</v>
       </c>
@@ -2029,7 +2077,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>19</v>
       </c>
@@ -2048,31 +2096,31 @@
         <v>246</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
       <c r="E25" s="37"/>
       <c r="F25" s="37"/>
       <c r="G25" s="37"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
       <c r="E26" s="37"/>
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
     </row>
-    <row r="27" spans="1:7" s="29" customFormat="1">
+    <row r="27" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="43"/>
       <c r="E27" s="60"/>
       <c r="F27" s="60"/>
       <c r="G27" s="60"/>
     </row>
-    <row r="28" spans="1:7" s="29" customFormat="1">
+    <row r="28" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="43"/>
       <c r="E28" s="60"/>
       <c r="F28" s="60"/>
       <c r="G28" s="60"/>
     </row>
-    <row r="29" spans="1:7" ht="15.75" thickBot="1">
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20"/>
       <c r="B29" s="13"/>
       <c r="C29" s="8"/>
@@ -2080,7 +2128,7 @@
       <c r="E29" s="37"/>
       <c r="F29" s="37"/>
     </row>
-    <row r="30" spans="1:7" ht="15.75" thickBot="1">
+    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="33" t="s">
         <v>184</v>
       </c>
@@ -2095,14 +2143,14 @@
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" thickBot="1">
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="87" t="s">
         <v>24</v>
       </c>
       <c r="C31" s="88"/>
       <c r="D31" s="11"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="20">
         <v>1</v>
       </c>
@@ -2117,8 +2165,11 @@
       </c>
       <c r="E32" s="34"/>
       <c r="F32" s="34"/>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="20">
         <v>2</v>
       </c>
@@ -2133,8 +2184,11 @@
       </c>
       <c r="E33" s="34"/>
       <c r="F33" s="34"/>
-    </row>
-    <row r="34" spans="1:6" ht="14.25" customHeight="1">
+      <c r="G33" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
         <v>3</v>
       </c>
@@ -2149,8 +2203,11 @@
       </c>
       <c r="E34" s="34"/>
       <c r="F34" s="34"/>
-    </row>
-    <row r="35" spans="1:6" ht="14.25" customHeight="1">
+      <c r="G34" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20">
         <v>4</v>
       </c>
@@ -2165,8 +2222,11 @@
       </c>
       <c r="E35" s="34"/>
       <c r="F35" s="34"/>
-    </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1">
+      <c r="G35" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20">
         <v>5</v>
       </c>
@@ -2181,8 +2241,11 @@
       </c>
       <c r="E36" s="34"/>
       <c r="F36" s="34"/>
-    </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1">
+      <c r="G36" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
         <v>6</v>
       </c>
@@ -2197,8 +2260,11 @@
       </c>
       <c r="E37" s="34"/>
       <c r="F37" s="34"/>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="20">
         <v>7</v>
       </c>
@@ -2213,8 +2279,11 @@
       </c>
       <c r="E38" s="34"/>
       <c r="F38" s="34"/>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="20">
         <v>8</v>
       </c>
@@ -2229,8 +2298,11 @@
       </c>
       <c r="E39" s="34"/>
       <c r="F39" s="34"/>
-    </row>
-    <row r="40" spans="1:6" s="52" customFormat="1">
+      <c r="G39" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="20">
         <v>9</v>
       </c>
@@ -2245,8 +2317,11 @@
       </c>
       <c r="E40" s="34"/>
       <c r="F40" s="49"/>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40" s="52" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="20">
         <v>10</v>
       </c>
@@ -2261,8 +2336,11 @@
       </c>
       <c r="E41" s="34"/>
       <c r="F41" s="34"/>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="20">
         <v>11</v>
       </c>
@@ -2277,8 +2355,11 @@
       </c>
       <c r="E42" s="34"/>
       <c r="F42" s="34"/>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="20">
         <v>12</v>
       </c>
@@ -2293,8 +2374,11 @@
       </c>
       <c r="E43" s="34"/>
       <c r="F43" s="34"/>
-    </row>
-    <row r="44" spans="1:6" s="66" customFormat="1" ht="21" customHeight="1">
+      <c r="G43" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="66" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20">
         <v>13</v>
       </c>
@@ -2309,8 +2393,11 @@
       </c>
       <c r="E44" s="34"/>
       <c r="F44" s="65"/>
-    </row>
-    <row r="45" spans="1:6" s="6" customFormat="1" ht="21" customHeight="1">
+      <c r="G44" s="66" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="20">
         <v>14</v>
       </c>
@@ -2325,15 +2412,18 @@
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
-    </row>
-    <row r="46" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="G45" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="2" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="20"/>
       <c r="B46" s="30"/>
       <c r="C46" s="38"/>
       <c r="D46" s="29"/>
       <c r="E46" s="29"/>
     </row>
-    <row r="47" spans="1:6" ht="21" customHeight="1" thickBot="1">
+    <row r="47" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="33" t="s">
         <v>184</v>
       </c>
@@ -2348,14 +2438,14 @@
         <v>187</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" thickBot="1">
+    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="87" t="s">
         <v>41</v>
       </c>
       <c r="C48" s="88"/>
       <c r="D48" s="11"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="21">
         <v>1</v>
       </c>
@@ -2374,7 +2464,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="21">
         <v>2</v>
       </c>
@@ -2393,7 +2483,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="16.5" customHeight="1">
+    <row r="51" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="21">
         <v>3</v>
       </c>
@@ -2412,7 +2502,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="16.5" customHeight="1">
+    <row r="52" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="21">
         <v>4</v>
       </c>
@@ -2431,7 +2521,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="21">
         <v>5</v>
       </c>
@@ -2450,7 +2540,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="21">
         <v>6</v>
       </c>
@@ -2469,7 +2559,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="21">
         <v>7</v>
       </c>
@@ -2488,7 +2578,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="17.25" customHeight="1">
+    <row r="56" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="21">
         <v>8</v>
       </c>
@@ -2507,7 +2597,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="21">
         <v>9</v>
       </c>
@@ -2526,7 +2616,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="52" customFormat="1">
+    <row r="58" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="46">
         <v>10</v>
       </c>
@@ -2545,7 +2635,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="52" customFormat="1">
+    <row r="59" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="46">
         <v>11</v>
       </c>
@@ -2564,7 +2654,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="52" customFormat="1">
+    <row r="60" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="21">
         <v>12</v>
       </c>
@@ -2583,7 +2673,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15.75" customHeight="1">
+    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="21">
         <v>13</v>
       </c>
@@ -2602,7 +2692,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="21">
         <v>14</v>
       </c>
@@ -2621,7 +2711,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15" customHeight="1">
+    <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="21">
         <v>15</v>
       </c>
@@ -2640,7 +2730,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="21">
         <v>16</v>
       </c>
@@ -2659,13 +2749,13 @@
         <v>246</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="6" customFormat="1" ht="15.75" thickBot="1">
+    <row r="65" spans="1:7" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="21"/>
       <c r="B65" s="14"/>
       <c r="C65" s="10"/>
       <c r="E65"/>
     </row>
-    <row r="66" spans="1:7" s="6" customFormat="1" ht="15.75" thickBot="1">
+    <row r="66" spans="1:7" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="21"/>
       <c r="B66" s="33" t="s">
         <v>184</v>
@@ -2681,14 +2771,14 @@
         <v>187</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15.75" thickBot="1">
+    <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="87" t="s">
         <v>48</v>
       </c>
       <c r="C67" s="88"/>
       <c r="D67" s="11"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="21">
         <v>1</v>
       </c>
@@ -2707,7 +2797,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="21">
         <v>2</v>
       </c>
@@ -2726,7 +2816,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="21">
         <v>3</v>
       </c>
@@ -2745,7 +2835,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="52" customFormat="1" ht="15.75" customHeight="1">
+    <row r="71" spans="1:7" s="52" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="46">
         <v>4</v>
       </c>
@@ -2764,7 +2854,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="52" customFormat="1" ht="15.75" customHeight="1">
+    <row r="72" spans="1:7" s="52" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="46">
         <v>5</v>
       </c>
@@ -2783,13 +2873,13 @@
         <v>246</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+    <row r="73" spans="1:7" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="21"/>
       <c r="B73" s="14"/>
       <c r="C73" s="10"/>
       <c r="E73"/>
     </row>
-    <row r="74" spans="1:7" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+    <row r="74" spans="1:7" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="21"/>
       <c r="B74" s="33" t="s">
         <v>184</v>
@@ -2805,14 +2895,14 @@
         <v>187</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15.75" thickBot="1">
+    <row r="75" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="87" t="s">
         <v>63</v>
       </c>
       <c r="C75" s="88"/>
       <c r="D75" s="11"/>
     </row>
-    <row r="76" spans="1:7" s="52" customFormat="1">
+    <row r="76" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="56">
         <v>1</v>
       </c>
@@ -2827,8 +2917,11 @@
       </c>
       <c r="E76" s="49"/>
       <c r="F76" s="49"/>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="G76" s="52" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="21">
         <v>2</v>
       </c>
@@ -2843,8 +2936,11 @@
       </c>
       <c r="E77" s="34"/>
       <c r="F77" s="34"/>
-    </row>
-    <row r="78" spans="1:7" ht="16.5" customHeight="1">
+      <c r="G77" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="21">
         <v>3</v>
       </c>
@@ -2859,8 +2955,11 @@
       </c>
       <c r="E78" s="34"/>
       <c r="F78" s="34"/>
-    </row>
-    <row r="79" spans="1:7" ht="15.75" customHeight="1">
+      <c r="G78" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="21">
         <v>4</v>
       </c>
@@ -2875,8 +2974,11 @@
       </c>
       <c r="E79" s="34"/>
       <c r="F79" s="34"/>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="G79" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="21">
         <v>5</v>
       </c>
@@ -2891,8 +2993,11 @@
       </c>
       <c r="E80" s="34"/>
       <c r="F80" s="34"/>
-    </row>
-    <row r="81" spans="1:6" s="6" customFormat="1">
+      <c r="G80" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="73">
         <v>6</v>
       </c>
@@ -2907,8 +3012,11 @@
       </c>
       <c r="E81" s="65"/>
       <c r="F81" s="5"/>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="G81" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="21">
         <v>7</v>
       </c>
@@ -2923,8 +3031,11 @@
       </c>
       <c r="E82" s="34"/>
       <c r="F82" s="34"/>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="21">
         <v>8</v>
       </c>
@@ -2939,8 +3050,11 @@
       </c>
       <c r="E83" s="34"/>
       <c r="F83" s="34"/>
-    </row>
-    <row r="84" spans="1:6" s="6" customFormat="1">
+      <c r="G83" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="73">
         <v>9</v>
       </c>
@@ -2955,8 +3069,11 @@
       </c>
       <c r="E84" s="65"/>
       <c r="F84" s="5"/>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="21">
         <v>10</v>
       </c>
@@ -2971,8 +3088,11 @@
       </c>
       <c r="E85" s="34"/>
       <c r="F85" s="34"/>
-    </row>
-    <row r="86" spans="1:6" s="66" customFormat="1">
+      <c r="G85" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="73">
         <v>11</v>
       </c>
@@ -2987,8 +3107,11 @@
       </c>
       <c r="E86" s="65"/>
       <c r="F86" s="65"/>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="G86" s="66" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="21">
         <v>12</v>
       </c>
@@ -3003,8 +3126,11 @@
       </c>
       <c r="E87" s="34"/>
       <c r="F87" s="34"/>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="G87" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="21">
         <v>13</v>
       </c>
@@ -3019,8 +3145,11 @@
       </c>
       <c r="E88" s="34"/>
       <c r="F88" s="34"/>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="G88" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="21">
         <v>14</v>
       </c>
@@ -3035,8 +3164,11 @@
       </c>
       <c r="E89" s="34"/>
       <c r="F89" s="34"/>
-    </row>
-    <row r="90" spans="1:6" s="6" customFormat="1" ht="30">
+      <c r="G89" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="73">
         <v>15</v>
       </c>
@@ -3051,8 +3183,11 @@
       </c>
       <c r="E90" s="65"/>
       <c r="F90" s="5"/>
-    </row>
-    <row r="91" spans="1:6" s="6" customFormat="1">
+      <c r="G90" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="73">
         <v>16</v>
       </c>
@@ -3067,8 +3202,11 @@
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
-    </row>
-    <row r="92" spans="1:6" s="6" customFormat="1">
+      <c r="G91" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="73">
         <v>17</v>
       </c>
@@ -3083,13 +3221,16 @@
       </c>
       <c r="E92" s="10"/>
       <c r="F92" s="10"/>
-    </row>
-    <row r="93" spans="1:6" s="26" customFormat="1" ht="15.75" thickBot="1">
+      <c r="G92" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="25"/>
       <c r="B93" s="27"/>
       <c r="C93" s="28"/>
     </row>
-    <row r="94" spans="1:6" s="6" customFormat="1" ht="15.75" thickBot="1">
+    <row r="94" spans="1:7" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="21"/>
       <c r="B94" s="33" t="s">
         <v>184</v>
@@ -3105,21 +3246,21 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:6" s="6" customFormat="1" ht="15.75" thickBot="1">
+    <row r="95" spans="1:7" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="17"/>
       <c r="C95" s="19" t="s">
         <v>171</v>
       </c>
       <c r="D95" s="18"/>
     </row>
-    <row r="96" spans="1:6" ht="15.75" thickBot="1">
+    <row r="96" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B96" s="89" t="s">
         <v>75</v>
       </c>
       <c r="C96" s="90"/>
       <c r="D96" s="11"/>
     </row>
-    <row r="97" spans="1:6" s="77" customFormat="1">
+    <row r="97" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="74">
         <v>1</v>
       </c>
@@ -3134,8 +3275,11 @@
       </c>
       <c r="E97" s="69"/>
       <c r="F97" s="69"/>
-    </row>
-    <row r="98" spans="1:6" s="77" customFormat="1">
+      <c r="G97" s="77" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="74">
         <v>2</v>
       </c>
@@ -3150,8 +3294,11 @@
       </c>
       <c r="E98" s="69"/>
       <c r="F98" s="69"/>
-    </row>
-    <row r="99" spans="1:6" s="77" customFormat="1">
+      <c r="G98" s="77" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="74">
         <v>3</v>
       </c>
@@ -3166,8 +3313,11 @@
       </c>
       <c r="E99" s="69"/>
       <c r="F99" s="69"/>
-    </row>
-    <row r="100" spans="1:6" s="77" customFormat="1">
+      <c r="G99" s="77" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="74">
         <v>4</v>
       </c>
@@ -3182,8 +3332,11 @@
       </c>
       <c r="E100" s="69"/>
       <c r="F100" s="69"/>
-    </row>
-    <row r="101" spans="1:6" s="77" customFormat="1">
+      <c r="G100" s="77" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="74">
         <v>5</v>
       </c>
@@ -3198,8 +3351,11 @@
       </c>
       <c r="E101" s="69"/>
       <c r="F101" s="69"/>
-    </row>
-    <row r="102" spans="1:6" s="77" customFormat="1">
+      <c r="G101" s="77" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="74">
         <v>6</v>
       </c>
@@ -3214,8 +3370,11 @@
       </c>
       <c r="E102" s="69"/>
       <c r="F102" s="69"/>
-    </row>
-    <row r="103" spans="1:6" s="77" customFormat="1">
+      <c r="G102" s="77" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="74">
         <v>7</v>
       </c>
@@ -3230,8 +3389,11 @@
       </c>
       <c r="E103" s="69"/>
       <c r="F103" s="69"/>
-    </row>
-    <row r="104" spans="1:6" s="77" customFormat="1">
+      <c r="G103" s="77" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="74">
         <v>8</v>
       </c>
@@ -3246,8 +3408,11 @@
       </c>
       <c r="E104" s="69"/>
       <c r="F104" s="69"/>
-    </row>
-    <row r="105" spans="1:6" s="51" customFormat="1">
+      <c r="G104" s="77" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="46">
         <v>9</v>
       </c>
@@ -3262,8 +3427,11 @@
       </c>
       <c r="E105" s="69"/>
       <c r="F105" s="50"/>
-    </row>
-    <row r="106" spans="1:6" s="51" customFormat="1">
+      <c r="G105" s="51" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="46">
         <v>10</v>
       </c>
@@ -3278,8 +3446,11 @@
       </c>
       <c r="E106" s="69"/>
       <c r="F106" s="50"/>
-    </row>
-    <row r="107" spans="1:6" s="51" customFormat="1">
+      <c r="G106" s="51" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="46">
         <v>11</v>
       </c>
@@ -3294,14 +3465,17 @@
       </c>
       <c r="E107" s="69"/>
       <c r="F107" s="50"/>
-    </row>
-    <row r="108" spans="1:6" ht="15.75" thickBot="1">
+      <c r="G107" s="51" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="21"/>
       <c r="B108" s="15"/>
       <c r="C108" s="9"/>
       <c r="D108" s="2"/>
     </row>
-    <row r="109" spans="1:6" ht="15.75" thickBot="1">
+    <row r="109" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="21"/>
       <c r="B109" s="33" t="s">
         <v>184</v>
@@ -3317,14 +3491,14 @@
         <v>187</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="15.75" thickBot="1">
+    <row r="110" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B110" s="87" t="s">
         <v>88</v>
       </c>
       <c r="C110" s="88"/>
       <c r="D110" s="11"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="21">
         <v>1</v>
       </c>
@@ -3339,8 +3513,11 @@
       </c>
       <c r="E111" s="34"/>
       <c r="F111" s="34"/>
-    </row>
-    <row r="112" spans="1:6">
+      <c r="G111" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="21">
         <v>2</v>
       </c>
@@ -3355,8 +3532,11 @@
       </c>
       <c r="E112" s="34"/>
       <c r="F112" s="34"/>
-    </row>
-    <row r="113" spans="1:6">
+      <c r="G112" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="21">
         <v>3</v>
       </c>
@@ -3371,8 +3551,11 @@
       </c>
       <c r="E113" s="34"/>
       <c r="F113" s="34"/>
-    </row>
-    <row r="114" spans="1:6">
+      <c r="G113" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="21">
         <v>4</v>
       </c>
@@ -3387,8 +3570,11 @@
       </c>
       <c r="E114" s="34"/>
       <c r="F114" s="34"/>
-    </row>
-    <row r="115" spans="1:6">
+      <c r="G114" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="21">
         <v>5</v>
       </c>
@@ -3403,8 +3589,11 @@
       </c>
       <c r="E115" s="34"/>
       <c r="F115" s="34"/>
-    </row>
-    <row r="116" spans="1:6">
+      <c r="G115" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="21">
         <v>6</v>
       </c>
@@ -3419,8 +3608,11 @@
       </c>
       <c r="E116" s="34"/>
       <c r="F116" s="34"/>
-    </row>
-    <row r="117" spans="1:6" s="6" customFormat="1">
+      <c r="G116" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="73">
         <v>7</v>
       </c>
@@ -3435,8 +3627,11 @@
       </c>
       <c r="E117" s="34"/>
       <c r="F117" s="5"/>
-    </row>
-    <row r="118" spans="1:6" s="6" customFormat="1">
+      <c r="G117" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="73">
         <v>8</v>
       </c>
@@ -3451,8 +3646,11 @@
       </c>
       <c r="E118" s="34"/>
       <c r="F118" s="5"/>
-    </row>
-    <row r="119" spans="1:6" s="6" customFormat="1">
+      <c r="G118" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="73">
         <v>9</v>
       </c>
@@ -3467,8 +3665,11 @@
       </c>
       <c r="E119" s="34"/>
       <c r="F119" s="5"/>
-    </row>
-    <row r="120" spans="1:6" s="6" customFormat="1">
+      <c r="G119" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="73">
         <v>10</v>
       </c>
@@ -3483,8 +3684,11 @@
       </c>
       <c r="E120" s="34"/>
       <c r="F120" s="5"/>
-    </row>
-    <row r="121" spans="1:6" s="6" customFormat="1">
+      <c r="G120" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="73">
         <v>11</v>
       </c>
@@ -3499,8 +3703,11 @@
       </c>
       <c r="E121" s="34"/>
       <c r="F121" s="5"/>
-    </row>
-    <row r="122" spans="1:6">
+      <c r="G121" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="21">
         <v>12</v>
       </c>
@@ -3515,8 +3722,11 @@
       </c>
       <c r="E122" s="34"/>
       <c r="F122" s="34"/>
-    </row>
-    <row r="123" spans="1:6" s="66" customFormat="1">
+      <c r="G122" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="73">
         <v>13</v>
       </c>
@@ -3531,8 +3741,11 @@
       </c>
       <c r="E123" s="34"/>
       <c r="F123" s="65"/>
-    </row>
-    <row r="124" spans="1:6">
+      <c r="G123" s="66" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="21">
         <v>14</v>
       </c>
@@ -3547,8 +3760,11 @@
       </c>
       <c r="E124" s="34"/>
       <c r="F124" s="34"/>
-    </row>
-    <row r="125" spans="1:6">
+      <c r="G124" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="21">
         <v>15</v>
       </c>
@@ -3563,8 +3779,11 @@
       </c>
       <c r="E125" s="34"/>
       <c r="F125" s="34"/>
-    </row>
-    <row r="126" spans="1:6" s="6" customFormat="1">
+      <c r="G125" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="73">
         <v>16</v>
       </c>
@@ -3579,20 +3798,23 @@
       </c>
       <c r="E126" s="34"/>
       <c r="F126" s="5"/>
-    </row>
-    <row r="127" spans="1:6" s="6" customFormat="1">
+      <c r="G126" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="73"/>
       <c r="C127" s="86"/>
       <c r="D127" s="10"/>
       <c r="E127" s="37"/>
       <c r="F127" s="10"/>
     </row>
-    <row r="128" spans="1:6" s="45" customFormat="1" ht="15.75" thickBot="1">
+    <row r="128" spans="1:7" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="44"/>
       <c r="B128" s="58"/>
       <c r="C128" s="59"/>
     </row>
-    <row r="129" spans="1:7" ht="15.75" thickBot="1">
+    <row r="129" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="21"/>
       <c r="B129" s="33" t="s">
         <v>184</v>
@@ -3608,14 +3830,14 @@
         <v>187</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="15.75" thickBot="1">
+    <row r="130" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B130" s="87" t="s">
         <v>241</v>
       </c>
       <c r="C130" s="88"/>
       <c r="D130" s="11"/>
     </row>
-    <row r="131" spans="1:7" s="52" customFormat="1">
+    <row r="131" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="46">
         <v>1</v>
       </c>
@@ -3634,7 +3856,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="132" spans="1:7" s="52" customFormat="1">
+    <row r="132" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="46">
         <v>2</v>
       </c>
@@ -3653,7 +3875,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="133" spans="1:7" s="52" customFormat="1">
+    <row r="133" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="46">
         <v>3</v>
       </c>
@@ -3672,7 +3894,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="134" spans="1:7" s="52" customFormat="1">
+    <row r="134" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="46">
         <v>4</v>
       </c>
@@ -3691,7 +3913,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="135" spans="1:7" s="52" customFormat="1">
+    <row r="135" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="46">
         <v>5</v>
       </c>
@@ -3710,7 +3932,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="136" spans="1:7" s="52" customFormat="1">
+    <row r="136" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="46">
         <v>6</v>
       </c>
@@ -3729,7 +3951,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="137" spans="1:7" s="52" customFormat="1">
+    <row r="137" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="46">
         <v>7</v>
       </c>
@@ -3748,7 +3970,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="138" spans="1:7" s="52" customFormat="1">
+    <row r="138" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="46">
         <v>8</v>
       </c>
@@ -3767,7 +3989,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="139" spans="1:7" s="6" customFormat="1">
+    <row r="139" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="73">
         <v>9</v>
       </c>
@@ -3786,7 +4008,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="140" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1">
+    <row r="140" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="22">
         <v>10</v>
       </c>
@@ -3805,7 +4027,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="141" spans="1:7" s="6" customFormat="1">
+    <row r="141" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="73">
         <v>11</v>
       </c>
@@ -3824,7 +4046,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="21"/>
     </row>
   </sheetData>
@@ -3837,31 +4059,34 @@
     <mergeCell ref="B96:C96"/>
     <mergeCell ref="B75:C75"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="120" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="120" orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Quizz Judo 2.xlsx
+++ b/Quizz Judo 2.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="260">
   <si>
     <t>Tai-Otoshi</t>
   </si>
@@ -817,6 +817,12 @@
   </si>
   <si>
     <t>http://moteur-auracom.com/cgi-bin/aurweb.exe/judo/rech?_tech=Daki-age</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>nope</t>
   </si>
 </sst>
 </file>
@@ -1674,10 +1680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G142"/>
+  <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="B106" workbookViewId="0">
+      <selection activeCell="H117" sqref="H117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1689,7 +1695,7 @@
     <col min="6" max="6" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="24" t="s">
         <v>170</v>
@@ -1698,7 +1704,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>67</v>
       </c>
@@ -1706,13 +1712,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="23"/>
       <c r="C3" s="24"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>184</v>
       </c>
@@ -1727,7 +1733,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="40"/>
       <c r="C5" s="41" t="s">
         <v>100</v>
@@ -1735,7 +1741,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>1</v>
       </c>
@@ -1754,7 +1760,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>2</v>
       </c>
@@ -1772,8 +1778,11 @@
       <c r="G7" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>3</v>
       </c>
@@ -1791,8 +1800,11 @@
       <c r="G8" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>4</v>
       </c>
@@ -1811,7 +1823,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>5</v>
       </c>
@@ -1830,7 +1842,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>6</v>
       </c>
@@ -1849,7 +1861,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>7</v>
       </c>
@@ -1868,7 +1880,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>8</v>
       </c>
@@ -1887,7 +1899,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>9</v>
       </c>
@@ -1906,7 +1918,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <v>10</v>
       </c>
@@ -1925,7 +1937,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <v>11</v>
       </c>
@@ -2169,7 +2181,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="20">
         <v>2</v>
       </c>
@@ -2188,7 +2200,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
         <v>3</v>
       </c>
@@ -2207,7 +2219,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20">
         <v>4</v>
       </c>
@@ -2226,7 +2238,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20">
         <v>5</v>
       </c>
@@ -2244,8 +2256,11 @@
       <c r="G36" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
         <v>6</v>
       </c>
@@ -2263,8 +2278,11 @@
       <c r="G37" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="20">
         <v>7</v>
       </c>
@@ -2282,8 +2300,11 @@
       <c r="G38" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="20">
         <v>8</v>
       </c>
@@ -2302,7 +2323,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="20">
         <v>9</v>
       </c>
@@ -2321,7 +2342,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="20">
         <v>10</v>
       </c>
@@ -2340,7 +2361,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="20">
         <v>11</v>
       </c>
@@ -2359,7 +2380,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="20">
         <v>12</v>
       </c>
@@ -2378,7 +2399,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="66" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" s="66" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20">
         <v>13</v>
       </c>
@@ -2397,7 +2418,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="20">
         <v>14</v>
       </c>
@@ -2416,14 +2437,14 @@
         <v>251</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="2" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="20"/>
       <c r="B46" s="30"/>
       <c r="C46" s="38"/>
       <c r="D46" s="29"/>
       <c r="E46" s="29"/>
     </row>
-    <row r="47" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="33" t="s">
         <v>184</v>
       </c>
@@ -2438,14 +2459,14 @@
         <v>187</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="87" t="s">
         <v>41</v>
       </c>
       <c r="C48" s="88"/>
       <c r="D48" s="11"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="21">
         <v>1</v>
       </c>
@@ -2464,7 +2485,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="21">
         <v>2</v>
       </c>
@@ -2483,7 +2504,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="21">
         <v>3</v>
       </c>
@@ -2501,8 +2522,11 @@
       <c r="G51" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H51" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="21">
         <v>4</v>
       </c>
@@ -2521,7 +2545,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="21">
         <v>5</v>
       </c>
@@ -2540,7 +2564,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="21">
         <v>6</v>
       </c>
@@ -2558,8 +2582,11 @@
       <c r="G54" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="21">
         <v>7</v>
       </c>
@@ -2577,8 +2604,11 @@
       <c r="G55" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H55" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="21">
         <v>8</v>
       </c>
@@ -2597,7 +2627,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="21">
         <v>9</v>
       </c>
@@ -2616,7 +2646,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="46">
         <v>10</v>
       </c>
@@ -2634,8 +2664,11 @@
       <c r="G58" s="52" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H58" s="52" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="46">
         <v>11</v>
       </c>
@@ -2654,7 +2687,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="21">
         <v>12</v>
       </c>
@@ -2672,8 +2705,11 @@
       <c r="G60" s="52" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H60" s="52" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="21">
         <v>13</v>
       </c>
@@ -2692,7 +2728,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="21">
         <v>14</v>
       </c>
@@ -2711,7 +2747,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="21">
         <v>15</v>
       </c>
@@ -2730,7 +2766,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="21">
         <v>16</v>
       </c>
@@ -2749,13 +2785,13 @@
         <v>246</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="21"/>
       <c r="B65" s="14"/>
       <c r="C65" s="10"/>
       <c r="E65"/>
     </row>
-    <row r="66" spans="1:7" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="21"/>
       <c r="B66" s="33" t="s">
         <v>184</v>
@@ -2771,14 +2807,17 @@
         <v>187</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="87" t="s">
         <v>48</v>
       </c>
       <c r="C67" s="88"/>
       <c r="D67" s="11"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="21">
         <v>1</v>
       </c>
@@ -2796,8 +2835,11 @@
       <c r="G68" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="21">
         <v>2</v>
       </c>
@@ -2816,7 +2858,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="21">
         <v>3</v>
       </c>
@@ -2835,7 +2877,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="52" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="52" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="46">
         <v>4</v>
       </c>
@@ -2854,7 +2896,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="52" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="52" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="46">
         <v>5</v>
       </c>
@@ -2873,13 +2915,13 @@
         <v>246</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="21"/>
       <c r="B73" s="14"/>
       <c r="C73" s="10"/>
       <c r="E73"/>
     </row>
-    <row r="74" spans="1:7" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="21"/>
       <c r="B74" s="33" t="s">
         <v>184</v>
@@ -2895,14 +2937,14 @@
         <v>187</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="87" t="s">
         <v>63</v>
       </c>
       <c r="C75" s="88"/>
       <c r="D75" s="11"/>
     </row>
-    <row r="76" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="56">
         <v>1</v>
       </c>
@@ -2921,7 +2963,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="21">
         <v>2</v>
       </c>
@@ -2940,7 +2982,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="21">
         <v>3</v>
       </c>
@@ -2959,7 +3001,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="21">
         <v>4</v>
       </c>
@@ -2978,7 +3020,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="21">
         <v>5</v>
       </c>
@@ -3260,7 +3302,7 @@
       <c r="C96" s="90"/>
       <c r="D96" s="11"/>
     </row>
-    <row r="97" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="74">
         <v>1</v>
       </c>
@@ -3278,8 +3320,11 @@
       <c r="G97" s="77" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H97" s="77" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="74">
         <v>2</v>
       </c>
@@ -3297,8 +3342,11 @@
       <c r="G98" s="77" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H98" s="77" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="74">
         <v>3</v>
       </c>
@@ -3317,7 +3365,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="74">
         <v>4</v>
       </c>
@@ -3335,8 +3383,11 @@
       <c r="G100" s="77" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H100" s="77" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="74">
         <v>5</v>
       </c>
@@ -3355,7 +3406,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="102" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="74">
         <v>6</v>
       </c>
@@ -3374,7 +3425,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="103" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="74">
         <v>7</v>
       </c>
@@ -3393,7 +3444,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="104" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="74">
         <v>8</v>
       </c>
@@ -3412,7 +3463,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="105" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="46">
         <v>9</v>
       </c>
@@ -3431,7 +3482,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="106" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="46">
         <v>10</v>
       </c>
@@ -3449,8 +3500,11 @@
       <c r="G106" s="51" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H106" s="51" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="46">
         <v>11</v>
       </c>
@@ -3469,13 +3523,13 @@
         <v>252</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="21"/>
       <c r="B108" s="15"/>
       <c r="C108" s="9"/>
       <c r="D108" s="2"/>
     </row>
-    <row r="109" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="21"/>
       <c r="B109" s="33" t="s">
         <v>184</v>
@@ -3491,14 +3545,14 @@
         <v>187</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B110" s="87" t="s">
         <v>88</v>
       </c>
       <c r="C110" s="88"/>
       <c r="D110" s="11"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="21">
         <v>1</v>
       </c>
@@ -3516,8 +3570,11 @@
       <c r="G111" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H111" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="21">
         <v>2</v>
       </c>
@@ -3535,8 +3592,11 @@
       <c r="G112" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H112" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="21">
         <v>3</v>
       </c>
@@ -3554,8 +3614,11 @@
       <c r="G113" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H113" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="21">
         <v>4</v>
       </c>
@@ -3573,8 +3636,11 @@
       <c r="G114" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H114" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="21">
         <v>5</v>
       </c>
@@ -3592,8 +3658,11 @@
       <c r="G115" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H115" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="21">
         <v>6</v>
       </c>
@@ -3611,8 +3680,11 @@
       <c r="G116" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H116" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="73">
         <v>7</v>
       </c>
@@ -3631,7 +3703,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="118" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="73">
         <v>8</v>
       </c>
@@ -3650,7 +3722,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="119" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="73">
         <v>9</v>
       </c>
@@ -3669,7 +3741,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="120" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="73">
         <v>10</v>
       </c>
@@ -3688,7 +3760,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="121" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="73">
         <v>11</v>
       </c>
@@ -3707,7 +3779,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="21">
         <v>12</v>
       </c>
@@ -3726,7 +3798,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="123" spans="1:7" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="73">
         <v>13</v>
       </c>
@@ -3745,7 +3817,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="21">
         <v>14</v>
       </c>
@@ -3764,7 +3836,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="21">
         <v>15</v>
       </c>
@@ -3783,7 +3855,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="126" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="73">
         <v>16</v>
       </c>
@@ -3802,14 +3874,14 @@
         <v>255</v>
       </c>
     </row>
-    <row r="127" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="73"/>
       <c r="C127" s="86"/>
       <c r="D127" s="10"/>
       <c r="E127" s="37"/>
       <c r="F127" s="10"/>
     </row>
-    <row r="128" spans="1:7" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="44"/>
       <c r="B128" s="58"/>
       <c r="C128" s="59"/>

--- a/Quizz Judo 2.xlsx
+++ b/Quizz Judo 2.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="260">
   <si>
     <t>Tai-Otoshi</t>
   </si>
@@ -1682,8 +1682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B106" workbookViewId="0">
-      <selection activeCell="H117" sqref="H117"/>
+    <sheetView tabSelected="1" topLeftCell="B120" workbookViewId="0">
+      <selection activeCell="H144" sqref="H144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2218,6 +2218,9 @@
       <c r="G34" t="s">
         <v>256</v>
       </c>
+      <c r="H34" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="35" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20">
@@ -2321,6 +2324,9 @@
       <c r="F39" s="34"/>
       <c r="G39" t="s">
         <v>256</v>
+      </c>
+      <c r="H39" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.25">
@@ -2626,6 +2632,9 @@
       <c r="G56" t="s">
         <v>242</v>
       </c>
+      <c r="H56" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="21">
@@ -2645,6 +2654,9 @@
       <c r="G57" t="s">
         <v>242</v>
       </c>
+      <c r="H57" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="58" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="46">
@@ -2685,6 +2697,9 @@
       <c r="F59" s="49"/>
       <c r="G59" s="52" t="s">
         <v>242</v>
+      </c>
+      <c r="H59" s="52" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.25">
@@ -3721,6 +3736,9 @@
       <c r="G118" s="6" t="s">
         <v>255</v>
       </c>
+      <c r="H118" s="6" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="119" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="73">
@@ -3740,6 +3758,9 @@
       <c r="G119" s="6" t="s">
         <v>255</v>
       </c>
+      <c r="H119" s="6" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="120" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="73">
@@ -3872,6 +3893,9 @@
       <c r="F126" s="5"/>
       <c r="G126" s="6" t="s">
         <v>255</v>
+      </c>
+      <c r="H126" s="6" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="127" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">

--- a/Quizz Judo 2.xlsx
+++ b/Quizz Judo 2.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cours_INGESUP\labo_windows\AppJudo\ProjetJudoWP\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="180" windowWidth="18795" windowHeight="8385"/>
   </bookViews>
@@ -31,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="260">
   <si>
     <t>Tai-Otoshi</t>
   </si>
@@ -828,8 +823,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1362,6 +1357,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1374,7 +1370,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1436,7 +1431,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1468,10 +1463,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1503,7 +1497,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1679,14 +1672,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B106" workbookViewId="0">
-      <selection activeCell="H117" sqref="H117"/>
+    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" customWidth="1"/>
@@ -1695,16 +1688,16 @@
     <col min="6" max="6" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1">
       <c r="B1" s="1"/>
       <c r="C1" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="D1" s="91" t="s">
+      <c r="D1" s="87" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1">
       <c r="B2" s="3" t="s">
         <v>67</v>
       </c>
@@ -1712,13 +1705,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1">
       <c r="B3" s="23"/>
       <c r="C3" s="24"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15.75" thickBot="1">
       <c r="B4" s="3" t="s">
         <v>184</v>
       </c>
@@ -1733,7 +1726,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="B5" s="40"/>
       <c r="C5" s="41" t="s">
         <v>100</v>
@@ -1741,7 +1734,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="20">
         <v>1</v>
       </c>
@@ -1760,7 +1753,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="20">
         <v>2</v>
       </c>
@@ -1782,7 +1775,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="20">
         <v>3</v>
       </c>
@@ -1804,7 +1797,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="6" customFormat="1">
       <c r="A9" s="20">
         <v>4</v>
       </c>
@@ -1822,8 +1815,11 @@
       <c r="G9" s="6" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="6" customFormat="1">
       <c r="A10" s="20">
         <v>5</v>
       </c>
@@ -1842,7 +1838,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="6" customFormat="1">
       <c r="A11" s="20">
         <v>6</v>
       </c>
@@ -1861,7 +1857,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="6" customFormat="1">
       <c r="A12" s="20">
         <v>7</v>
       </c>
@@ -1880,7 +1876,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="6" customFormat="1">
       <c r="A13" s="20">
         <v>8</v>
       </c>
@@ -1899,7 +1895,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="6" customFormat="1">
       <c r="A14" s="20">
         <v>9</v>
       </c>
@@ -1917,8 +1913,11 @@
       <c r="G14" s="6" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="6" customFormat="1">
       <c r="A15" s="20">
         <v>10</v>
       </c>
@@ -1937,7 +1936,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="6" customFormat="1">
       <c r="A16" s="20">
         <v>11</v>
       </c>
@@ -1956,7 +1955,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="20">
         <v>12</v>
       </c>
@@ -1974,8 +1973,11 @@
       <c r="G17" s="6" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="20">
         <v>13</v>
       </c>
@@ -1994,7 +1996,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="20">
         <v>14</v>
       </c>
@@ -2013,7 +2015,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="20">
         <v>15</v>
       </c>
@@ -2032,7 +2034,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="20">
         <v>16</v>
       </c>
@@ -2051,7 +2053,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="20">
         <v>17</v>
       </c>
@@ -2070,7 +2072,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="6" customFormat="1">
       <c r="A23" s="20">
         <v>18</v>
       </c>
@@ -2088,8 +2090,11 @@
       <c r="G23" s="6" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="20">
         <v>19</v>
       </c>
@@ -2108,31 +2113,31 @@
         <v>246</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="20"/>
       <c r="E25" s="37"/>
       <c r="F25" s="37"/>
       <c r="G25" s="37"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="20"/>
       <c r="E26" s="37"/>
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
     </row>
-    <row r="27" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="29" customFormat="1">
       <c r="A27" s="43"/>
       <c r="E27" s="60"/>
       <c r="F27" s="60"/>
       <c r="G27" s="60"/>
     </row>
-    <row r="28" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="29" customFormat="1">
       <c r="A28" s="43"/>
       <c r="E28" s="60"/>
       <c r="F28" s="60"/>
       <c r="G28" s="60"/>
     </row>
-    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="15.75" thickBot="1">
       <c r="A29" s="20"/>
       <c r="B29" s="13"/>
       <c r="C29" s="8"/>
@@ -2140,7 +2145,7 @@
       <c r="E29" s="37"/>
       <c r="F29" s="37"/>
     </row>
-    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="15.75" thickBot="1">
       <c r="B30" s="33" t="s">
         <v>184</v>
       </c>
@@ -2155,14 +2160,14 @@
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="87" t="s">
+    <row r="31" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B31" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="88"/>
+      <c r="C31" s="89"/>
       <c r="D31" s="11"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="20">
         <v>1</v>
       </c>
@@ -2181,7 +2186,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="20">
         <v>2</v>
       </c>
@@ -2200,7 +2205,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="14.25" customHeight="1">
       <c r="A34" s="20">
         <v>3</v>
       </c>
@@ -2219,7 +2224,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="14.25" customHeight="1">
       <c r="A35" s="20">
         <v>4</v>
       </c>
@@ -2238,7 +2243,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15" customHeight="1">
       <c r="A36" s="20">
         <v>5</v>
       </c>
@@ -2260,7 +2265,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15" customHeight="1">
       <c r="A37" s="20">
         <v>6</v>
       </c>
@@ -2282,7 +2287,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="20">
         <v>7</v>
       </c>
@@ -2304,7 +2309,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="20">
         <v>8</v>
       </c>
@@ -2323,7 +2328,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" s="52" customFormat="1">
       <c r="A40" s="20">
         <v>9</v>
       </c>
@@ -2342,7 +2347,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="20">
         <v>10</v>
       </c>
@@ -2361,7 +2366,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="20">
         <v>11</v>
       </c>
@@ -2379,8 +2384,11 @@
       <c r="G42" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="20">
         <v>12</v>
       </c>
@@ -2398,8 +2406,11 @@
       <c r="G43" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" s="66" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H43" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="66" customFormat="1" ht="21" customHeight="1">
       <c r="A44" s="20">
         <v>13</v>
       </c>
@@ -2418,7 +2429,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" s="6" customFormat="1" ht="21" customHeight="1">
       <c r="A45" s="20">
         <v>14</v>
       </c>
@@ -2437,14 +2448,14 @@
         <v>251</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="A46" s="20"/>
       <c r="B46" s="30"/>
       <c r="C46" s="38"/>
       <c r="D46" s="29"/>
       <c r="E46" s="29"/>
     </row>
-    <row r="47" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="21" customHeight="1" thickBot="1">
       <c r="B47" s="33" t="s">
         <v>184</v>
       </c>
@@ -2459,14 +2470,14 @@
         <v>187</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="87" t="s">
+    <row r="48" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B48" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="88"/>
+      <c r="C48" s="89"/>
       <c r="D48" s="11"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" s="21">
         <v>1</v>
       </c>
@@ -2485,7 +2496,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="21">
         <v>2</v>
       </c>
@@ -2504,7 +2515,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="16.5" customHeight="1">
       <c r="A51" s="21">
         <v>3</v>
       </c>
@@ -2526,7 +2537,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="16.5" customHeight="1">
       <c r="A52" s="21">
         <v>4</v>
       </c>
@@ -2545,7 +2556,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" s="21">
         <v>5</v>
       </c>
@@ -2564,7 +2575,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54" s="21">
         <v>6</v>
       </c>
@@ -2586,7 +2597,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" s="21">
         <v>7</v>
       </c>
@@ -2608,7 +2619,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="17.25" customHeight="1">
       <c r="A56" s="21">
         <v>8</v>
       </c>
@@ -2627,7 +2638,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" s="21">
         <v>9</v>
       </c>
@@ -2646,7 +2657,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" s="52" customFormat="1">
       <c r="A58" s="46">
         <v>10</v>
       </c>
@@ -2668,7 +2679,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" s="52" customFormat="1">
       <c r="A59" s="46">
         <v>11</v>
       </c>
@@ -2687,7 +2698,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="52" customFormat="1">
       <c r="A60" s="21">
         <v>12</v>
       </c>
@@ -2709,7 +2720,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="15.75" customHeight="1">
       <c r="A61" s="21">
         <v>13</v>
       </c>
@@ -2728,7 +2739,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62" s="21">
         <v>14</v>
       </c>
@@ -2747,7 +2758,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="15" customHeight="1">
       <c r="A63" s="21">
         <v>15</v>
       </c>
@@ -2765,8 +2776,11 @@
       <c r="G63" s="52" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H63" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="21">
         <v>16</v>
       </c>
@@ -2785,13 +2799,13 @@
         <v>246</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" s="6" customFormat="1" ht="15.75" thickBot="1">
       <c r="A65" s="21"/>
       <c r="B65" s="14"/>
       <c r="C65" s="10"/>
       <c r="E65"/>
     </row>
-    <row r="66" spans="1:8" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" s="6" customFormat="1" ht="15.75" thickBot="1">
       <c r="A66" s="21"/>
       <c r="B66" s="33" t="s">
         <v>184</v>
@@ -2807,17 +2821,17 @@
         <v>187</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="87" t="s">
+    <row r="67" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B67" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C67" s="88"/>
+      <c r="C67" s="89"/>
       <c r="D67" s="11"/>
       <c r="H67" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68" s="21">
         <v>1</v>
       </c>
@@ -2839,7 +2853,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="A69" s="21">
         <v>2</v>
       </c>
@@ -2857,8 +2871,11 @@
       <c r="G69" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H69" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="21">
         <v>3</v>
       </c>
@@ -2877,7 +2894,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="52" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="52" customFormat="1" ht="15.75" customHeight="1">
       <c r="A71" s="46">
         <v>4</v>
       </c>
@@ -2896,7 +2913,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="52" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="52" customFormat="1" ht="15.75" customHeight="1">
       <c r="A72" s="46">
         <v>5</v>
       </c>
@@ -2915,13 +2932,13 @@
         <v>246</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A73" s="21"/>
       <c r="B73" s="14"/>
       <c r="C73" s="10"/>
       <c r="E73"/>
     </row>
-    <row r="74" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A74" s="21"/>
       <c r="B74" s="33" t="s">
         <v>184</v>
@@ -2937,14 +2954,14 @@
         <v>187</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="87" t="s">
+    <row r="75" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B75" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="C75" s="88"/>
+      <c r="C75" s="89"/>
       <c r="D75" s="11"/>
     </row>
-    <row r="76" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" s="52" customFormat="1">
       <c r="A76" s="56">
         <v>1</v>
       </c>
@@ -2963,7 +2980,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8">
       <c r="A77" s="21">
         <v>2</v>
       </c>
@@ -2982,7 +2999,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="16.5" customHeight="1">
       <c r="A78" s="21">
         <v>3</v>
       </c>
@@ -3001,7 +3018,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="15.75" customHeight="1">
       <c r="A79" s="21">
         <v>4</v>
       </c>
@@ -3020,7 +3037,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8">
       <c r="A80" s="21">
         <v>5</v>
       </c>
@@ -3039,7 +3056,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="81" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" s="6" customFormat="1">
       <c r="A81" s="73">
         <v>6</v>
       </c>
@@ -3058,7 +3075,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" s="21">
         <v>7</v>
       </c>
@@ -3077,7 +3094,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" s="21">
         <v>8</v>
       </c>
@@ -3096,7 +3113,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" s="6" customFormat="1">
       <c r="A84" s="73">
         <v>9</v>
       </c>
@@ -3115,7 +3132,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" s="21">
         <v>10</v>
       </c>
@@ -3134,7 +3151,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="86" spans="1:7" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" s="66" customFormat="1">
       <c r="A86" s="73">
         <v>11</v>
       </c>
@@ -3153,7 +3170,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87" s="21">
         <v>12</v>
       </c>
@@ -3172,7 +3189,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88" s="21">
         <v>13</v>
       </c>
@@ -3191,7 +3208,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89" s="21">
         <v>14</v>
       </c>
@@ -3210,7 +3227,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="90" spans="1:7" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" s="6" customFormat="1" ht="30">
       <c r="A90" s="73">
         <v>15</v>
       </c>
@@ -3229,7 +3246,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" s="6" customFormat="1">
       <c r="A91" s="73">
         <v>16</v>
       </c>
@@ -3248,7 +3265,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="92" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" s="6" customFormat="1">
       <c r="A92" s="73">
         <v>17</v>
       </c>
@@ -3267,12 +3284,12 @@
         <v>252</v>
       </c>
     </row>
-    <row r="93" spans="1:7" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" s="26" customFormat="1" ht="15.75" thickBot="1">
       <c r="A93" s="25"/>
       <c r="B93" s="27"/>
       <c r="C93" s="28"/>
     </row>
-    <row r="94" spans="1:7" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" s="6" customFormat="1" ht="15.75" thickBot="1">
       <c r="A94" s="21"/>
       <c r="B94" s="33" t="s">
         <v>184</v>
@@ -3288,21 +3305,21 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" s="6" customFormat="1" ht="15.75" thickBot="1">
       <c r="B95" s="17"/>
       <c r="C95" s="19" t="s">
         <v>171</v>
       </c>
       <c r="D95" s="18"/>
     </row>
-    <row r="96" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="89" t="s">
+    <row r="96" spans="1:7" ht="15.75" thickBot="1">
+      <c r="B96" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="C96" s="90"/>
+      <c r="C96" s="91"/>
       <c r="D96" s="11"/>
     </row>
-    <row r="97" spans="1:8" s="77" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" s="77" customFormat="1">
       <c r="A97" s="74">
         <v>1</v>
       </c>
@@ -3324,7 +3341,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="77" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" s="77" customFormat="1">
       <c r="A98" s="74">
         <v>2</v>
       </c>
@@ -3346,7 +3363,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="77" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" s="77" customFormat="1">
       <c r="A99" s="74">
         <v>3</v>
       </c>
@@ -3365,7 +3382,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="77" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" s="77" customFormat="1">
       <c r="A100" s="74">
         <v>4</v>
       </c>
@@ -3387,7 +3404,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="101" spans="1:8" s="77" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" s="77" customFormat="1">
       <c r="A101" s="74">
         <v>5</v>
       </c>
@@ -3406,7 +3423,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="102" spans="1:8" s="77" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" s="77" customFormat="1">
       <c r="A102" s="74">
         <v>6</v>
       </c>
@@ -3425,7 +3442,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="103" spans="1:8" s="77" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" s="77" customFormat="1">
       <c r="A103" s="74">
         <v>7</v>
       </c>
@@ -3444,7 +3461,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="104" spans="1:8" s="77" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" s="77" customFormat="1">
       <c r="A104" s="74">
         <v>8</v>
       </c>
@@ -3463,7 +3480,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="105" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" s="51" customFormat="1">
       <c r="A105" s="46">
         <v>9</v>
       </c>
@@ -3482,7 +3499,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="106" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" s="51" customFormat="1">
       <c r="A106" s="46">
         <v>10</v>
       </c>
@@ -3504,7 +3521,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="107" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" s="51" customFormat="1">
       <c r="A107" s="46">
         <v>11</v>
       </c>
@@ -3523,13 +3540,13 @@
         <v>252</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" ht="15.75" thickBot="1">
       <c r="A108" s="21"/>
       <c r="B108" s="15"/>
       <c r="C108" s="9"/>
       <c r="D108" s="2"/>
     </row>
-    <row r="109" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" ht="15.75" thickBot="1">
       <c r="A109" s="21"/>
       <c r="B109" s="33" t="s">
         <v>184</v>
@@ -3545,14 +3562,14 @@
         <v>187</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="87" t="s">
+    <row r="110" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B110" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="C110" s="88"/>
+      <c r="C110" s="89"/>
       <c r="D110" s="11"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="A111" s="21">
         <v>1</v>
       </c>
@@ -3574,7 +3591,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8">
       <c r="A112" s="21">
         <v>2</v>
       </c>
@@ -3596,7 +3613,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8">
       <c r="A113" s="21">
         <v>3</v>
       </c>
@@ -3618,7 +3635,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8">
       <c r="A114" s="21">
         <v>4</v>
       </c>
@@ -3640,7 +3657,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8">
       <c r="A115" s="21">
         <v>5</v>
       </c>
@@ -3662,7 +3679,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8">
       <c r="A116" s="21">
         <v>6</v>
       </c>
@@ -3684,7 +3701,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="117" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" s="6" customFormat="1">
       <c r="A117" s="73">
         <v>7</v>
       </c>
@@ -3703,7 +3720,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="118" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" s="6" customFormat="1">
       <c r="A118" s="73">
         <v>8</v>
       </c>
@@ -3722,7 +3739,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="119" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" s="6" customFormat="1">
       <c r="A119" s="73">
         <v>9</v>
       </c>
@@ -3741,7 +3758,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="120" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" s="6" customFormat="1">
       <c r="A120" s="73">
         <v>10</v>
       </c>
@@ -3760,7 +3777,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="121" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" s="6" customFormat="1">
       <c r="A121" s="73">
         <v>11</v>
       </c>
@@ -3779,7 +3796,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8">
       <c r="A122" s="21">
         <v>12</v>
       </c>
@@ -3798,7 +3815,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="123" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" s="66" customFormat="1">
       <c r="A123" s="73">
         <v>13</v>
       </c>
@@ -3817,7 +3834,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8">
       <c r="A124" s="21">
         <v>14</v>
       </c>
@@ -3836,7 +3853,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8">
       <c r="A125" s="21">
         <v>15</v>
       </c>
@@ -3855,7 +3872,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="126" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" s="6" customFormat="1">
       <c r="A126" s="73">
         <v>16</v>
       </c>
@@ -3874,19 +3891,19 @@
         <v>255</v>
       </c>
     </row>
-    <row r="127" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" s="6" customFormat="1">
       <c r="A127" s="73"/>
       <c r="C127" s="86"/>
       <c r="D127" s="10"/>
       <c r="E127" s="37"/>
       <c r="F127" s="10"/>
     </row>
-    <row r="128" spans="1:8" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" s="45" customFormat="1" ht="15.75" thickBot="1">
       <c r="A128" s="44"/>
       <c r="B128" s="58"/>
       <c r="C128" s="59"/>
     </row>
-    <row r="129" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" ht="15.75" thickBot="1">
       <c r="A129" s="21"/>
       <c r="B129" s="33" t="s">
         <v>184</v>
@@ -3902,14 +3919,14 @@
         <v>187</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="87" t="s">
+    <row r="130" spans="1:7" ht="15.75" thickBot="1">
+      <c r="B130" s="88" t="s">
         <v>241</v>
       </c>
-      <c r="C130" s="88"/>
+      <c r="C130" s="89"/>
       <c r="D130" s="11"/>
     </row>
-    <row r="131" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" s="52" customFormat="1">
       <c r="A131" s="46">
         <v>1</v>
       </c>
@@ -3928,7 +3945,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="132" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" s="52" customFormat="1">
       <c r="A132" s="46">
         <v>2</v>
       </c>
@@ -3947,7 +3964,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="133" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" s="52" customFormat="1">
       <c r="A133" s="46">
         <v>3</v>
       </c>
@@ -3966,7 +3983,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="134" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" s="52" customFormat="1">
       <c r="A134" s="46">
         <v>4</v>
       </c>
@@ -3985,7 +4002,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="135" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" s="52" customFormat="1">
       <c r="A135" s="46">
         <v>5</v>
       </c>
@@ -4004,7 +4021,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="136" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" s="52" customFormat="1">
       <c r="A136" s="46">
         <v>6</v>
       </c>
@@ -4023,7 +4040,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="137" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" s="52" customFormat="1">
       <c r="A137" s="46">
         <v>7</v>
       </c>
@@ -4042,7 +4059,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="138" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" s="52" customFormat="1">
       <c r="A138" s="46">
         <v>8</v>
       </c>
@@ -4061,7 +4078,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="139" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" s="6" customFormat="1">
       <c r="A139" s="73">
         <v>9</v>
       </c>
@@ -4080,7 +4097,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="140" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A140" s="22">
         <v>10</v>
       </c>
@@ -4099,7 +4116,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="141" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" s="6" customFormat="1">
       <c r="A141" s="73">
         <v>11</v>
       </c>
@@ -4118,7 +4135,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7">
       <c r="A142" s="21"/>
     </row>
   </sheetData>
@@ -4141,24 +4158,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
